--- a/Injections/2022-07-15/InjectionData_2022-07-15.xlsx
+++ b/Injections/2022-07-15/InjectionData_2022-07-15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Documents\Ecuador2022\Injections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Documents\Ecuador2022\Injections\2022-07-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A4E0F-3B32-4CC1-B855-6837FEE670EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A0F0A-BF7F-4411-95A5-5109D657B6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>Qtotal</t>
   </si>
   <si>
-    <t>Gavilan (near station 2)</t>
-  </si>
-  <si>
     <t>DO (Hobo)</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Salt mass (g)</t>
+  </si>
+  <si>
+    <t>Gavilan Tributary</t>
   </si>
 </sst>
 </file>
@@ -3376,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B07F5-C3C0-4DE1-9537-1DA4075EB81C}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,7 +3403,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3414,7 +3414,7 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3435,7 +3435,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>0.45763888888888887</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>0.46736111111111112</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1">
         <v>0.46875</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <v>0.51736111111111105</v>
@@ -3473,15 +3473,15 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8">
         <v>1.5</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8">
         <v>1.5</v>
@@ -3523,7 +3523,7 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -3548,7 +3548,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3592,10 +3592,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3657,13 +3657,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>0.4236111111111111</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3706,7 +3706,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7">
         <v>0.48680555555555555</v>
@@ -4824,12 +4824,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4842,7 +4842,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7">
         <v>0.5083333333333333</v>
@@ -6218,7 +6218,7 @@
         <v>0.37777777777777777</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6520,7 +6520,7 @@
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.3">
